--- a/gaode/高德地图POI分类编码表.xlsx
+++ b/gaode/高德地图POI分类编码表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\studyws\poi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F6DB6-51CF-49A7-961E-1F4B71617442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'POI分类与编码（中英文）'!$A$1:$H$870</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">变更履历!$A$1:$D$29</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8867" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8867" uniqueCount="2512">
   <si>
     <t>序号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -7861,13 +7855,17 @@
   </si>
   <si>
     <t>休闲餐饮场所</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务住宅</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8888,24 +8886,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -8921,15 +8919,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9231,18 +9229,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C19" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="19.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" style="11" customWidth="1"/>
+    <col min="3" max="4" width="19.81640625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -9274,7 +9272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9288,7 +9286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9302,7 +9300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9344,7 +9342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9358,7 +9356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9386,7 +9384,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -9400,7 +9398,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -9414,7 +9412,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9484,7 +9482,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9498,7 +9496,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9512,7 +9510,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9526,7 +9524,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9540,7 +9538,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9554,7 +9552,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9568,7 +9566,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9596,7 +9594,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9610,7 +9608,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -9647,19 +9645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
       <c r="B1" s="56"/>
       <c r="C1" s="52"/>
@@ -10175,7 +10173,7 @@
       <c r="IU2" s="50"/>
       <c r="IV2" s="50"/>
     </row>
-    <row r="3" spans="1:256" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="58" t="s">
         <v>2496</v>
@@ -10693,7 +10691,7 @@
       <c r="IU4" s="50"/>
       <c r="IV4" s="50"/>
     </row>
-    <row r="5" spans="1:256" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="60" t="s">
         <v>2495</v>
@@ -10968,7 +10966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H871"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10978,16 +10976,16 @@
       <selection pane="bottomRight" activeCell="B4" sqref="A1:H870"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.08984375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -11537,7 +11535,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -11563,7 +11561,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11901,7 +11899,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -11927,7 +11925,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -12265,7 +12263,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -12291,7 +12289,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -12317,7 +12315,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -12369,7 +12367,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -12395,7 +12393,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -12421,7 +12419,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -12447,7 +12445,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -12551,7 +12549,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -12577,7 +12575,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -12603,7 +12601,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -12629,7 +12627,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -12655,7 +12653,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -12681,7 +12679,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -12707,7 +12705,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -12733,7 +12731,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -12759,7 +12757,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -12811,7 +12809,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -12837,7 +12835,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -12863,7 +12861,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -12889,7 +12887,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -12915,7 +12913,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -12941,7 +12939,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -12967,7 +12965,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -12993,7 +12991,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -13019,7 +13017,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -13123,7 +13121,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -13149,7 +13147,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -13175,7 +13173,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -13201,7 +13199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -13227,7 +13225,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -13279,7 +13277,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -13305,7 +13303,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -13331,7 +13329,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -13357,7 +13355,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -13383,7 +13381,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -13591,7 +13589,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -13617,7 +13615,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -13643,7 +13641,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -13669,7 +13667,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -13721,7 +13719,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -13747,7 +13745,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -13799,7 +13797,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -13825,7 +13823,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -14215,7 +14213,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -14241,7 +14239,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -14267,7 +14265,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -14293,7 +14291,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -14319,7 +14317,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -14345,7 +14343,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -14371,7 +14369,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -14397,7 +14395,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -14423,7 +14421,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -14449,7 +14447,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -14475,7 +14473,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -14553,7 +14551,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -14579,7 +14577,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -14605,7 +14603,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -14631,7 +14629,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -14657,7 +14655,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -14683,7 +14681,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -14709,7 +14707,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -14735,7 +14733,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -14761,7 +14759,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -14787,7 +14785,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -14813,7 +14811,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -14839,7 +14837,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -14865,7 +14863,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -14891,7 +14889,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -14917,7 +14915,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -14943,7 +14941,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -14969,7 +14967,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -14995,7 +14993,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -15021,7 +15019,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -15047,7 +15045,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -15073,7 +15071,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -15099,7 +15097,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -15125,7 +15123,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -15151,7 +15149,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -15177,7 +15175,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -15203,7 +15201,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -15229,7 +15227,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -15255,7 +15253,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -15281,7 +15279,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -15333,7 +15331,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -15385,7 +15383,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -15411,7 +15409,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -15437,7 +15435,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -15463,7 +15461,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -15489,7 +15487,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -15515,7 +15513,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -15567,7 +15565,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -15593,7 +15591,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -15619,7 +15617,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -15645,7 +15643,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -15671,7 +15669,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -15697,7 +15695,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -15723,7 +15721,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -15775,7 +15773,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -15801,7 +15799,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -15827,7 +15825,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -15853,7 +15851,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -15879,7 +15877,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -15905,7 +15903,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -15931,7 +15929,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -15957,7 +15955,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -15983,7 +15981,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -16009,7 +16007,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -16035,7 +16033,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -16061,7 +16059,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -16087,7 +16085,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -16113,7 +16111,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -16139,7 +16137,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -16165,7 +16163,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -16191,7 +16189,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -16243,7 +16241,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -16269,7 +16267,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -16295,7 +16293,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -16321,7 +16319,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -16347,7 +16345,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -16399,7 +16397,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -16425,7 +16423,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -16451,7 +16449,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -16477,7 +16475,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -16503,7 +16501,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -16529,7 +16527,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -16555,7 +16553,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -16581,7 +16579,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -16607,7 +16605,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -16633,7 +16631,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -16659,7 +16657,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -16685,7 +16683,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -16737,7 +16735,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -16763,7 +16761,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -16789,7 +16787,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -16815,7 +16813,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -17179,7 +17177,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -17231,7 +17229,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -17283,7 +17281,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -17309,7 +17307,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -17543,7 +17541,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -17621,7 +17619,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -18063,7 +18061,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -18271,7 +18269,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -18297,7 +18295,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -18323,7 +18321,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -18349,7 +18347,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -18375,7 +18373,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -18479,7 +18477,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -18531,7 +18529,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -18557,7 +18555,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -18583,7 +18581,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -18609,7 +18607,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -18739,7 +18737,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -19363,7 +19361,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -19389,7 +19387,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -19415,7 +19413,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -19441,7 +19439,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -19467,7 +19465,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -19493,7 +19491,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -19519,7 +19517,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -19545,7 +19543,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -19753,7 +19751,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -20429,7 +20427,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -20637,7 +20635,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -20663,7 +20661,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -20689,7 +20687,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -20871,7 +20869,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -21183,7 +21181,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -21599,7 +21597,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -21703,7 +21701,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -21833,7 +21831,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>417</v>
       </c>
@@ -21859,7 +21857,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>418</v>
       </c>
@@ -22197,7 +22195,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>431</v>
       </c>
@@ -22353,7 +22351,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>437</v>
       </c>
@@ -22639,7 +22637,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>448</v>
       </c>
@@ -22717,7 +22715,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>451</v>
       </c>
@@ -22795,7 +22793,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>454</v>
       </c>
@@ -22899,7 +22897,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>458</v>
       </c>
@@ -22925,7 +22923,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>459</v>
       </c>
@@ -22951,7 +22949,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>460</v>
       </c>
@@ -22977,7 +22975,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>461</v>
       </c>
@@ -23003,7 +23001,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>462</v>
       </c>
@@ -23029,7 +23027,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>463</v>
       </c>
@@ -23055,7 +23053,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>464</v>
       </c>
@@ -23081,7 +23079,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>465</v>
       </c>
@@ -23107,7 +23105,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>466</v>
       </c>
@@ -23133,7 +23131,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>467</v>
       </c>
@@ -23159,7 +23157,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>468</v>
       </c>
@@ -23185,7 +23183,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>469</v>
       </c>
@@ -23211,7 +23209,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>470</v>
       </c>
@@ -23237,7 +23235,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>471</v>
       </c>
@@ -23367,7 +23365,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>476</v>
       </c>
@@ -23497,7 +23495,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>481</v>
       </c>
@@ -23627,7 +23625,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>486</v>
       </c>
@@ -23653,7 +23651,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>487</v>
       </c>
@@ -23731,7 +23729,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>490</v>
       </c>
@@ -23757,7 +23755,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>491</v>
       </c>
@@ -23783,7 +23781,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>492</v>
       </c>
@@ -24043,7 +24041,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>502</v>
       </c>
@@ -24121,7 +24119,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>505</v>
       </c>
@@ -24303,7 +24301,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>512</v>
       </c>
@@ -24329,7 +24327,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>513</v>
       </c>
@@ -24355,7 +24353,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>514</v>
       </c>
@@ -24381,7 +24379,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>515</v>
       </c>
@@ -24407,7 +24405,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>516</v>
       </c>
@@ -24433,7 +24431,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>517</v>
       </c>
@@ -24459,7 +24457,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>518</v>
       </c>
@@ -24485,7 +24483,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>519</v>
       </c>
@@ -24511,7 +24509,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>520</v>
       </c>
@@ -24537,7 +24535,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>521</v>
       </c>
@@ -24563,7 +24561,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>522</v>
       </c>
@@ -24589,7 +24587,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>523</v>
       </c>
@@ -24693,7 +24691,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>527</v>
       </c>
@@ -24875,7 +24873,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>534</v>
       </c>
@@ -24901,7 +24899,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>535</v>
       </c>
@@ -24927,7 +24925,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>536</v>
       </c>
@@ -24953,7 +24951,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>537</v>
       </c>
@@ -24979,7 +24977,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>538</v>
       </c>
@@ -25005,7 +25003,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>539</v>
       </c>
@@ -25031,7 +25029,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>540</v>
       </c>
@@ -25057,7 +25055,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>541</v>
       </c>
@@ -25083,7 +25081,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>542</v>
       </c>
@@ -25109,7 +25107,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>543</v>
       </c>
@@ -25135,7 +25133,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>544</v>
       </c>
@@ -25161,7 +25159,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>545</v>
       </c>
@@ -25187,7 +25185,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>546</v>
       </c>
@@ -25213,7 +25211,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>547</v>
       </c>
@@ -25239,7 +25237,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>548</v>
       </c>
@@ -25265,7 +25263,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>549</v>
       </c>
@@ -25291,7 +25289,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>550</v>
       </c>
@@ -25317,7 +25315,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>551</v>
       </c>
@@ -25343,7 +25341,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>552</v>
       </c>
@@ -25369,7 +25367,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>553</v>
       </c>
@@ -25395,7 +25393,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>554</v>
       </c>
@@ -25421,7 +25419,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>555</v>
       </c>
@@ -25447,7 +25445,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>556</v>
       </c>
@@ -25473,7 +25471,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>557</v>
       </c>
@@ -25499,7 +25497,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>558</v>
       </c>
@@ -25525,7 +25523,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>559</v>
       </c>
@@ -25551,7 +25549,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>560</v>
       </c>
@@ -25577,7 +25575,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>561</v>
       </c>
@@ -25603,7 +25601,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>562</v>
       </c>
@@ -25629,7 +25627,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>563</v>
       </c>
@@ -25837,7 +25835,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>571</v>
       </c>
@@ -25863,7 +25861,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>572</v>
       </c>
@@ -25889,7 +25887,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>573</v>
       </c>
@@ -25915,7 +25913,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>574</v>
       </c>
@@ -25941,7 +25939,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>575</v>
       </c>
@@ -26305,7 +26303,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>589</v>
       </c>
@@ -26331,7 +26329,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>590</v>
       </c>
@@ -26357,7 +26355,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>591</v>
       </c>
@@ -26383,7 +26381,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>592</v>
       </c>
@@ -26409,7 +26407,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>593</v>
       </c>
@@ -26435,7 +26433,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>594</v>
       </c>
@@ -26487,7 +26485,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>596</v>
       </c>
@@ -26643,7 +26641,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>602</v>
       </c>
@@ -26669,7 +26667,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>603</v>
       </c>
@@ -27475,7 +27473,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
         <v>634</v>
       </c>
@@ -27501,7 +27499,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="4">
         <v>635</v>
       </c>
@@ -27527,7 +27525,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
         <v>636</v>
       </c>
@@ -27553,7 +27551,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
         <v>637</v>
       </c>
@@ -27579,7 +27577,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="4">
         <v>638</v>
       </c>
@@ -27605,7 +27603,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
         <v>639</v>
       </c>
@@ -27631,7 +27629,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>640</v>
       </c>
@@ -27657,7 +27655,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>641</v>
       </c>
@@ -27683,7 +27681,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <v>642</v>
       </c>
@@ -27709,7 +27707,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
         <v>643</v>
       </c>
@@ -27735,7 +27733,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
         <v>644</v>
       </c>
@@ -27761,7 +27759,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>645</v>
       </c>
@@ -27787,7 +27785,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
         <v>646</v>
       </c>
@@ -27917,7 +27915,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>651</v>
       </c>
@@ -29737,7 +29735,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="4">
         <v>721</v>
       </c>
@@ -30257,7 +30255,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="4">
         <v>741</v>
       </c>
@@ -30933,7 +30931,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="4">
         <v>767</v>
       </c>
@@ -31245,7 +31243,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" s="4">
         <v>779</v>
       </c>
@@ -31271,7 +31269,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="4">
         <v>780</v>
       </c>
@@ -31297,7 +31295,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" s="4">
         <v>781</v>
       </c>
@@ -31323,7 +31321,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" s="4">
         <v>782</v>
       </c>
@@ -31349,7 +31347,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="4">
         <v>783</v>
       </c>
@@ -31375,7 +31373,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="4">
         <v>784</v>
       </c>
@@ -31401,7 +31399,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="4">
         <v>785</v>
       </c>
@@ -31427,7 +31425,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="4">
         <v>786</v>
       </c>
@@ -31453,7 +31451,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="4">
         <v>787</v>
       </c>
@@ -31583,7 +31581,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="4">
         <v>792</v>
       </c>
@@ -31609,7 +31607,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="4">
         <v>793</v>
       </c>
@@ -32181,7 +32179,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="4">
         <v>815</v>
       </c>
@@ -32701,7 +32699,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="4">
         <v>835</v>
       </c>
@@ -32727,7 +32725,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="4">
         <v>836</v>
       </c>
@@ -32779,7 +32777,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="4">
         <v>838</v>
       </c>
@@ -32883,7 +32881,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="4">
         <v>842</v>
       </c>
@@ -32909,7 +32907,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="4">
         <v>843</v>
       </c>
@@ -32935,7 +32933,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="4">
         <v>844</v>
       </c>
@@ -32961,7 +32959,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="4">
         <v>845</v>
       </c>
@@ -32987,7 +32985,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="4">
         <v>846</v>
       </c>
@@ -33039,7 +33037,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="4">
         <v>848</v>
       </c>
@@ -33621,11 +33619,11 @@
       <c r="G871" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H870" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H870"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H857" r:id="rId1" display="javascript:void(0);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H858" r:id="rId2" display="javascript:void(0);" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H857" r:id="rId1" display="javascript:void(0);"/>
+    <hyperlink ref="H858" r:id="rId2" display="javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" r:id="rId3"/>
@@ -33645,17 +33643,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDC03A8-A46E-464E-AD36-139E5E777FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E849"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D523" sqref="D523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -35324,7 +35322,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -35341,7 +35339,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -35358,7 +35356,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>102</v>
       </c>
@@ -35375,7 +35373,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>103</v>
       </c>
@@ -35409,7 +35407,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>105</v>
       </c>
@@ -35426,7 +35424,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>106</v>
       </c>
@@ -36973,7 +36971,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>197</v>
       </c>
@@ -36990,7 +36988,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>198</v>
       </c>
@@ -37007,7 +37005,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>199</v>
       </c>
@@ -37024,7 +37022,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>200</v>
       </c>
@@ -37058,7 +37056,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>202</v>
       </c>
@@ -37075,7 +37073,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>203</v>
       </c>
@@ -42387,7 +42385,7 @@
         <v>120100</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>564</v>
+        <v>2511</v>
       </c>
       <c r="D514" s="5" t="s">
         <v>566</v>
@@ -47955,7 +47953,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A842" s="4">
         <v>861</v>
       </c>
@@ -47972,7 +47970,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A843" s="4">
         <v>862</v>
       </c>
